--- a/data/income_statement/2digits/total/86_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/86_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>86-Human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>86-Human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11159075.26129</v>
@@ -956,37 +862,42 @@
         <v>12019795.9129</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>14730989.66861</v>
+        <v>14732621.00922</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>16752395.27102</v>
+        <v>16794831.2744</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>18526064.9904</v>
+        <v>19057906.227</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>21585723.35731</v>
+        <v>21790782.34492</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>24326111.32474</v>
+        <v>25045358.82192</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>27591730.74843001</v>
+        <v>27650187.52338</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>31505235.0992</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>38545908.85260001</v>
+        <v>38666754.49635</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>47006590.96324001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>47382709.42743</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>52783996.128</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>10885390.43415</v>
@@ -995,37 +906,42 @@
         <v>11706266.63322</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>14368862.1765</v>
+        <v>14370430.25927</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16358812.12662</v>
+        <v>16401168.10148</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>18036635.86592</v>
+        <v>18561227.33784</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>20985591.06497</v>
+        <v>21189858.9237</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>23562870.40322</v>
+        <v>24267500.03509</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>26670848.42486</v>
+        <v>26726374.724</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>30316263.58651</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>36852268.32223999</v>
+        <v>36972006.45055</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44625839.15799001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44985274.18640999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>50100924.788</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>53504.7976</v>
@@ -1037,34 +953,39 @@
         <v>66490.35573000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>94897.39006999999</v>
+        <v>94897.39007000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>135007.90031</v>
+        <v>135009.40031</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>183717.34027</v>
+        <v>183756.32133</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>263449.66251</v>
+        <v>264524.27494</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>178766.56191</v>
+        <v>178936.29849</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>331285.85679</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>615014.0016600001</v>
+        <v>615028.30307</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>945479.2136599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>952910.31706</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1261885.197</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>220180.02954</v>
@@ -1073,79 +994,89 @@
         <v>231546.51019</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>295637.13638</v>
+        <v>295700.39422</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>298685.7543299999</v>
+        <v>298765.78285</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>354421.22417</v>
+        <v>361669.48885</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>416414.9520700001</v>
+        <v>417167.09989</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>499791.25901</v>
+        <v>513334.51189</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>742115.7616600001</v>
+        <v>744876.5008899999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>857685.6559</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1078626.5287</v>
+        <v>1079719.74273</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1435272.59159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1444524.92396</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1421186.143</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>229574.3724099999</v>
+        <v>229574.37241</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>212411.28585</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>237757.58769</v>
+        <v>237764.77503</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>374973.24657</v>
+        <v>375156.5645099999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>253956.64147</v>
+        <v>272197.24287</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>213740.13309</v>
+        <v>214685.86841</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>291824.64174</v>
+        <v>298644.32009</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>335445.4173</v>
+        <v>344602.1900300001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>394428.11584</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>502584.63361</v>
+        <v>503066.86496</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>695914.8543499999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>696164.9577099999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>887229.795</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>175896.6461199999</v>
+        <v>175896.64612</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>177505.3046</v>
@@ -1154,82 +1085,92 @@
         <v>200559.23487</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>321004.14426</v>
+        <v>321138.2376100001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>211202.84265</v>
+        <v>229443.44405</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>147773.06397</v>
+        <v>148700.4449</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>188274.78359</v>
+        <v>193480.91039</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>204902.41416</v>
+        <v>214047.98564</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>254339.83017</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>333637.0799700001</v>
+        <v>334102.59152</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>496545.84765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>496801.08069</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>662696.999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>42407.00600000001</v>
+        <v>42407.006</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>29448.83428</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>28918.46726</v>
+        <v>28918.46725999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>39547.01212000001</v>
+        <v>39596.23670999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>33009.60821</v>
+        <v>33009.60820999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>58361.30954000001</v>
+        <v>58379.66393</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>85666.58999000001</v>
+        <v>86254.85822999998</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>113296.83098</v>
+        <v>113297.94559</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>123333.09124</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>154928.15337</v>
+        <v>154944.87317</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>184672.9743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>184675.39797</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>205289.304</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>11270.72029</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5457.14697</v>
+        <v>5457.146969999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8279.885560000001</v>
+        <v>8287.072900000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>14422.09019</v>
@@ -1241,10 +1182,10 @@
         <v>7605.75958</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17883.26816</v>
+        <v>18908.55147</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>17246.17216</v>
+        <v>17256.2588</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>16755.19443</v>
@@ -1253,13 +1194,18 @@
         <v>14019.40027</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14696.0324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14688.47905</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>19243.492</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10929500.88888</v>
@@ -1268,76 +1214,86 @@
         <v>11807384.62705</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>14493232.08092</v>
+        <v>14494856.23419</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>16377422.02445</v>
+        <v>16419674.70989</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>18272108.34893</v>
+        <v>18785708.98413</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21371983.22422</v>
+        <v>21576096.47651</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>24034286.683</v>
+        <v>24746714.50183</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>27256285.33113</v>
+        <v>27305585.33335</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>31110806.98336</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>38043324.21899001</v>
+        <v>38163687.63139</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>46310676.10888999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>46686544.46971998</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>51896766.333</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8069971.45247</v>
+        <v>8069971.452470001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>8895663.424539998</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10921256.67286</v>
+        <v>10922653.48523</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12649913.70608</v>
+        <v>12666878.06964</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14151226.1741</v>
+        <v>14585165.71971</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16656926.88373</v>
+        <v>16833857.18272</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18837599.21315</v>
+        <v>19414619.86486</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>21676211.7044</v>
+        <v>21708862.1188</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>24654303.82585001</v>
+        <v>24654303.82585</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>29691709.77901</v>
+        <v>29761183.08423</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>35936359.27062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>36096562.39122</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>39401979.158</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>133816.95193</v>
@@ -1349,16 +1305,16 @@
         <v>151936.14785</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>98107.92171</v>
+        <v>98107.92171000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>193201.61153</v>
+        <v>193342.69219</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>165654.8634</v>
+        <v>165792.20828</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>186226.73434</v>
+        <v>187917.84711</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>163711.49704</v>
@@ -1367,16 +1323,21 @@
         <v>299989.41367</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>446349.97756</v>
+        <v>446896.1338399999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>366759.7634899999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>367076.7703</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>527601.444</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>368481.81584</v>
@@ -1385,76 +1346,86 @@
         <v>397452.66791</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>461220.58358</v>
+        <v>461220.5835799999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>455835.92411</v>
+        <v>460666.31864</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>481514.64901</v>
+        <v>483889.4647899999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>462751.33831</v>
+        <v>464112.91532</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>734061.03622</v>
+        <v>738850.51891</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>654043.32952</v>
+        <v>654772.9965499999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>737801.36497</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>904040.3938600001</v>
+        <v>909908.1490900001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1273541.05043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1279243.38008</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1571290.114</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7548188.26249</v>
+        <v>7548188.262490001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8372332.36105</v>
+        <v>8372332.361049999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10281313.00309</v>
+        <v>10282709.81546</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12065785.51725</v>
+        <v>12077919.48628</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>13443806.98094</v>
+        <v>13874532.44187</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>15786499.81224</v>
+        <v>15961855.88176</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>17863356.53705001</v>
+        <v>18432475.30791</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>20796758.83024</v>
+        <v>20828710.67995</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>23565462.26041</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>28280013.51098</v>
+        <v>28342785.45749</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>34194424.18541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34346461.15168</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>37206013.404</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19484.42221</v>
@@ -1469,70 +1440,80 @@
         <v>30184.34301</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32702.93262</v>
+        <v>33401.12086</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>242020.86978</v>
+        <v>242096.17736</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>53954.90553999999</v>
+        <v>55376.19093</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>61698.0476</v>
+        <v>61666.94526</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>51050.78680000001</v>
+        <v>51050.7868</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>61305.89661</v>
+        <v>61593.34381000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>101634.27129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>103781.08916</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>97074.196</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2859529.43641</v>
+        <v>2859529.436410001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>2911721.20251</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3571975.40806</v>
+        <v>3572202.74896</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3727508.31837</v>
+        <v>3752796.640250001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4120882.17483</v>
+        <v>4200543.26442</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4715056.340489999</v>
+        <v>4742239.29379</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5196687.46985</v>
+        <v>5332094.63697</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5580073.626730002</v>
+        <v>5596723.21455</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6456503.157509999</v>
+        <v>6456503.15751</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8351614.43998</v>
+        <v>8402504.54716</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10374316.83827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10589982.0785</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12494787.175</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1837117.34264</v>
@@ -1541,37 +1522,42 @@
         <v>2033797.78678</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2355465.89419</v>
+        <v>2355649.2743</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2450907.287460001</v>
+        <v>2469898.01308</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2675907.41683</v>
+        <v>2715427.98961</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3071223.562829999</v>
+        <v>3085685.15205</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3355343.94991</v>
+        <v>3439904.16227</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3716429.65411</v>
+        <v>3721380.88405</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4141942.67068</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5104541.877280001</v>
+        <v>5131090.470549999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6191709.171850001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6315653.28816</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6479968.217</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2706.52002</v>
@@ -1586,31 +1572,36 @@
         <v>6238.03782</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2948.53861</v>
+        <v>2948.538610000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4889.014189999999</v>
+        <v>4889.014190000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2965.116689999999</v>
+        <v>3120.78137</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6202.757749999999</v>
+        <v>6202.75775</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>18712.10201</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8248.59822</v>
+        <v>8428.598219999998</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11520.67953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11747.79823</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13305.83</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>161969.32011</v>
@@ -1625,31 +1616,36 @@
         <v>267295.28605</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>317122.67703</v>
+        <v>328642.78003</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>360962.39883</v>
+        <v>361652.01633</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>396084.69781</v>
+        <v>405298.1003899999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>447950.91093</v>
+        <v>448484.3869900001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>528107.41064</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>696048.2694999999</v>
+        <v>696920.6588000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>870980.2710399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>874714.0249499999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>833696.472</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1672441.50251</v>
@@ -1658,76 +1654,86 @@
         <v>1839339.55975</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2119257.00629</v>
+        <v>2119440.3864</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2177373.96359</v>
+        <v>2196364.68921</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2355836.20119</v>
+        <v>2383836.67097</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2705372.149809999</v>
+        <v>2719144.12153</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2956294.13541</v>
+        <v>3031485.28051</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3262275.985430001</v>
+        <v>3266693.73931</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3595123.15803</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4400245.00956</v>
+        <v>4425741.213529999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5309208.221279999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5429191.464980001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5632965.915</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1022412.09377</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>877923.4157299999</v>
+        <v>877923.41573</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1216509.51387</v>
+        <v>1216553.47466</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1276601.03091</v>
+        <v>1282898.62717</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1444974.758</v>
+        <v>1485115.27481</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1643832.77766</v>
+        <v>1656554.14174</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1841343.51994</v>
+        <v>1892190.4747</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1863643.97262</v>
+        <v>1875342.3305</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2314560.48683</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3247072.5627</v>
+        <v>3271414.07661</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4182607.66642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4274328.79034</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6014818.958</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>412319.69116</v>
@@ -1736,37 +1742,42 @@
         <v>447893.80232</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>406357.58521</v>
+        <v>406358.2782499999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>575471.51114</v>
+        <v>576451.6518599999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>539980.94897</v>
+        <v>560946.1245500001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>785352.8030300001</v>
+        <v>793741.5023600002</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1172279.87566</v>
+        <v>1227094.49</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1180457.85373</v>
+        <v>1182808.9923</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1850975.8982</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4671291.468920001</v>
+        <v>4671816.333770001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3566806.94815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3573057.25882</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3669985.749</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>22886.53997</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>38579.38982</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>37089.129</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>56356.8129</v>
@@ -1832,118 +1848,133 @@
         <v>51141.32296</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>40873.49416</v>
+        <v>40873.49415999999</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>100363.11076</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>55487.48351000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>55283.61554000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>45061.105</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>60420.05257000001</v>
+        <v>60420.05256999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>79571.7577</v>
+        <v>79571.75769999999</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>104348.80491</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>137959.80085</v>
+        <v>138515.03305</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>129406.10961</v>
+        <v>129965.56353</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>206832.20292</v>
+        <v>207171.35302</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>279267.7881599999</v>
+        <v>281997.5921</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>360115.95826</v>
+        <v>360438.53936</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>456426.81482</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>788147.20085</v>
+        <v>788203.4313299999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>987210.7298700002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>989425.2663900001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>986777.013</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1209.05896</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>964.3240800000001</v>
+        <v>964.32408</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>1636.10312</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1345.82934</v>
+        <v>1659.22706</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1184.71316</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>841.1732099999999</v>
+        <v>841.1732099999998</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>947.9468700000001</v>
+        <v>1117.54762</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1169.74459</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>916.6939699999999</v>
+        <v>916.69397</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4339.13472</v>
+        <v>4339.144719999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1169.96182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1338.93674</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1656.308</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4567.612789999999</v>
+        <v>4567.61279</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>19401.3403</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5035.477609999999</v>
+        <v>5035.47761</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>11543.54325</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5101.122240000001</v>
+        <v>5244.127140000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>11578.40194</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>41372.21671</v>
+        <v>41475.18938999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10226.9617</v>
@@ -1952,16 +1983,21 @@
         <v>32366.11879</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16765.29013</v>
+        <v>16773.55013</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10686.04923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12916.48447</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22569.176</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4123.49199</v>
@@ -1970,37 +2006,42 @@
         <v>4940.93902</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4649.306249999999</v>
+        <v>4649.30625</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7310.815139999999</v>
+        <v>7310.81514</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6185.74602</v>
+        <v>6198.693389999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5325.181280000001</v>
+        <v>5329.599849999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>20042.35496</v>
+        <v>20231.85596</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13431.82093</v>
+        <v>13433.29217</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>27316.75518</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13655.67307</v>
+        <v>13807.17207</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>38673.11534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>38681.8071</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>104665.526</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>208539.59614</v>
@@ -2009,37 +2050,42 @@
         <v>217547.21122</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>163998.58427</v>
+        <v>163998.5842700001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>264739.99749</v>
+        <v>264808.44701</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>218422.0328699999</v>
+        <v>234606.30407</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>388256.4367899999</v>
+        <v>396875.40082</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>568243.45498</v>
+        <v>606253.0546399999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>506997.5251799999</v>
+        <v>508001.73061</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1015629.92172</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3357257.517110001</v>
+        <v>3357753.15701</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2084765.9428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2084392.3608</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1998071.861</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1629.99959</v>
@@ -2051,7 +2097,7 @@
         <v>1454.77233</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>7004.34513</v>
+        <v>7004.345130000001</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>3903.30524</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12916.37976</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>28231.582</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>367.37389</v>
@@ -2087,7 +2138,7 @@
         <v>760.69276</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>17.23619</v>
+        <v>17.92819</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>215.40065</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>952.3235</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1355.107</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>52219.15236</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>53734.49816000001</v>
+        <v>53734.49816</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>74178.78288</v>
+        <v>74178.78392</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>97007.34494999998</v>
+        <v>97050.40622999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>123639.31895</v>
+        <v>127704.81714</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>137029.60369</v>
+        <v>136455.77032</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>178758.5672</v>
+        <v>192371.70351</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>214231.56942</v>
+        <v>215254.45022</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>232840.6322</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>316955.49461</v>
+        <v>316768.72008</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>336365.5725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>338570.6947000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>444508.942</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>242157.3879299999</v>
+        <v>242157.38793</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>225429.71249</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>403103.74681</v>
+        <v>403103.7481399999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>253105.52399</v>
+        <v>254049.72491</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>403981.40237</v>
+        <v>472297.61929</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>504808.03076</v>
+        <v>517733.76249</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>829181.22265</v>
+        <v>882750.2632200001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1002041.77995</v>
+        <v>1003626.0526</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1530860.13023</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3990628.53405</v>
+        <v>3991191.81433</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2607519.19002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2607826.57795</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2731406.06</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>10444.89629</v>
@@ -2207,37 +2273,42 @@
         <v>12179.30716</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>14571.95056</v>
+        <v>14576.66001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>15203.34234</v>
+        <v>15203.55284</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>16775.4582</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>17401.35562</v>
+        <v>17444.49413</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>23516.65564</v>
+        <v>23518.456</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>26468.13421</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>35505.39107000001</v>
+        <v>35507.242</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>51054.71582</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>51021.30076000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>35655.284</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>23781.76061</v>
+        <v>23781.76060999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>21529.00338</v>
@@ -2246,37 +2317,42 @@
         <v>25700.5775</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>36216.19674</v>
+        <v>36235.87706</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>23565.6908</v>
+        <v>24113.57037</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>59890.86315</v>
+        <v>60421.59597000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>62382.99571</v>
+        <v>62682.63649</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>107477.8082</v>
+        <v>107489.7822</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>67558.5913</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>59290.92259</v>
+        <v>59595.92306</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>64622.01063000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>64797.79018</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>52687.866</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>397.0183799999999</v>
+        <v>397.01838</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>398.35164</v>
@@ -2291,10 +2367,10 @@
         <v>2860.06173</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9089.415370000001</v>
+        <v>9089.415369999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2199.89064</v>
+        <v>2381.49656</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1910.56069</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>15467.57582</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14507.611</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>179550.87132</v>
@@ -2321,37 +2402,42 @@
         <v>152362.85732</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>320191.7199199999</v>
+        <v>320191.71992</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>142061.11983</v>
+        <v>142281.80674</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>323332.6503200001</v>
+        <v>383490.22314</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>356585.2318100001</v>
+        <v>367262.28057</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>675285.9034599999</v>
+        <v>718931.8051399998</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>780880.5333400002</v>
+        <v>782335.5939</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1330542.3406</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3771630.852149999</v>
+        <v>3771775.17979</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2367803.83305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2367525.48345</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2471871.604</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1992.38712</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>23035.19828</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>18596.824</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>138.05058</v>
@@ -2402,13 +2493,13 @@
         <v>11.87009</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>56.64331</v>
+        <v>56.64330999999999</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>42.32463</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>22.27568</v>
+        <v>1664.37462</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>37.30793</v>
@@ -2417,7 +2508,7 @@
         <v>114.69671</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>385.82914</v>
+        <v>385.8291400000001</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>2.15891</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.72905</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>25852.40363</v>
@@ -2438,76 +2534,86 @@
         <v>35238.02045</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>37744.85392999999</v>
+        <v>37744.85525999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>51994.1064</v>
+        <v>52693.23063999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>36310.23835999999</v>
+        <v>43920.79239</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>60862.50761</v>
+        <v>60938.35882000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>65568.84573</v>
+        <v>74967.59941</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>83665.35675000002</v>
+        <v>83780.79448000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>69804.56345</v>
+        <v>69804.56344999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>78310.53440999999</v>
+        <v>78422.63565000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>85535.12736999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>85978.50041000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>138086.116</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>416980.7208700001</v>
+        <v>416980.72087</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>431017.18538</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>652935.3982299999</v>
+        <v>652935.9931400002</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>557157.16371</v>
+        <v>557158.6104</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>801073.7214800001</v>
+        <v>821982.9330700001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>992744.2675399999</v>
+        <v>997862.7075899999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1363924.65393</v>
+        <v>1433919.61712</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1631067.36512</v>
+        <v>1632847.67309</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1768742.1895</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2939443.69944</v>
+        <v>2939575.56661</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2955182.58297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2961528.506459999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3294234.338</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>344865.04021</v>
@@ -2516,37 +2622,42 @@
         <v>346314.80178</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>464486.0233600001</v>
+        <v>464486.61827</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>484638.84479</v>
+        <v>484640.29148</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>585367.5376100001</v>
+        <v>606276.7492000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>830040.78018</v>
+        <v>834685.6991100002</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>982006.45344</v>
+        <v>1050559.03302</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1207950.23958</v>
+        <v>1209721.26225</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1389241.07327</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2115920.42815</v>
+        <v>2116052.29532</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2518951.46118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2524788.79805</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2608525.769</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>72115.68066</v>
@@ -2564,67 +2675,77 @@
         <v>215706.18387</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>162703.48736</v>
+        <v>163177.00848</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>381918.20049</v>
+        <v>383360.5841</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>423117.1255400001</v>
+        <v>423126.4108399999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>379501.11623</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>823523.2712900001</v>
+        <v>823523.2712899998</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>436231.1217900001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>436739.70841</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>685708.569</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>775593.6761300002</v>
+        <v>775593.67613</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>669370.32018</v>
+        <v>669370.3201799999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>566827.95404</v>
+        <v>566872.01163</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1041809.85435</v>
+        <v>1048141.94372</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>779900.5831200001</v>
+        <v>751780.8470000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>931633.2823899999</v>
+        <v>934699.17402</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>820517.51902</v>
+        <v>802615.08436</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>410992.6812799999</v>
+        <v>421677.59711</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>865934.0652999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>988291.79813</v>
+        <v>1012463.02944</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2186712.84158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2278030.96475</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3659164.309</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>110175.07401</v>
@@ -2636,34 +2757,39 @@
         <v>150480.5549</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>172919.39684</v>
+        <v>173221.71468</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>239250.20323</v>
+        <v>245742.69465</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>286281.34252</v>
+        <v>286982.4836299999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>333177.49801</v>
+        <v>336822.74806</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>570226.82875</v>
+        <v>571650.67388</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>552793.8079400001</v>
+        <v>552793.80794</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>656552.1021700001</v>
+        <v>657120.6650799999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>680841.77501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>685528.52238</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>650131.99</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2114.92201</v>
@@ -2672,22 +2798,22 @@
         <v>3585.77544</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2556.421</v>
+        <v>2556.420999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5194.132580000001</v>
+        <v>5194.13258</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7867.10407</v>
+        <v>7867.104069999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>9908.619620000001</v>
+        <v>9995.418900000002</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7304.4067</v>
+        <v>7371.60129</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>29348.77171</v>
+        <v>29391.59971</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>13255.81889</v>
@@ -2696,13 +2822,18 @@
         <v>11241.96959</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>29735.60602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>27625.0333</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19345.117</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>108060.152</v>
@@ -2714,34 +2845,39 @@
         <v>147924.1339</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>167725.26426</v>
+        <v>168027.5821</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>231383.09916</v>
+        <v>237875.59058</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>276372.7228999999</v>
+        <v>276987.06473</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>325873.0913099999</v>
+        <v>329451.14677</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>540878.05704</v>
+        <v>542259.07417</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>539537.9890500001</v>
+        <v>539537.98905</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>645310.13258</v>
+        <v>645878.6954899998</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>651106.16899</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>657903.48908</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>630786.873</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>137721.24844</v>
@@ -2750,37 +2886,42 @@
         <v>196979.0813</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1594130.86378</v>
+        <v>1594498.51933</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>368648.61285</v>
+        <v>368850.35159</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>317741.48781</v>
+        <v>324456.0169299999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>873993.36057</v>
+        <v>876898.13844</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>339267.50485</v>
+        <v>351731.3063100001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1252414.20473</v>
+        <v>1251427.36235</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>407009.1244699999</v>
+        <v>407009.12447</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1223535.23206</v>
+        <v>1225717.21894</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>870470.9206000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>878891.12341</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>888720.019</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9386.256370000001</v>
@@ -2792,13 +2933,13 @@
         <v>28540.89347</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>40468.75308999999</v>
+        <v>40468.75309000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>13915.527</v>
+        <v>14422.75909</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>28033.52623</v>
+        <v>28291.63156</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>25738.36943</v>
@@ -2810,16 +2951,21 @@
         <v>10449.69669</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>28710.98353</v>
+        <v>28811.73104</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>28558.88797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>28600.70597</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>20253.829</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>12460.62546</v>
@@ -2828,37 +2974,42 @@
         <v>29368.27092</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>55398.12779</v>
+        <v>55398.12779000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>43532.61777</v>
+        <v>43538.52770999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>44922.59712999999</v>
+        <v>45248.08377</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>23764.51413</v>
+        <v>23815.37906</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>31611.03417</v>
+        <v>31678.04399</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>34928.65446</v>
+        <v>34929.30453000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>45283.55473</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>59986.61548000001</v>
+        <v>60112.96320000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>79912.23081000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>80057.89114000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>79187.626</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>115874.36661</v>
@@ -2867,76 +3018,86 @@
         <v>159247.59289</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1510191.84252</v>
+        <v>1510559.49807</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>284647.24199</v>
+        <v>284843.07079</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>258903.36368</v>
+        <v>264785.17407</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>822195.3202100002</v>
+        <v>824791.1278199999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>281918.1012500001</v>
+        <v>294314.89289</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1191393.2214</v>
+        <v>1190405.72895</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>351275.8730499999</v>
+        <v>351275.87305</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1134837.63305</v>
+        <v>1136792.5247</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>761999.8018200001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>770232.5262999998</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>789278.564</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>748047.5016999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>630338.1038699999</v>
+        <v>630338.10387</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-876822.3548399999</v>
+        <v>-877145.9528000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>846080.6383399999</v>
+        <v>852513.3068100001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>701409.29854</v>
+        <v>673067.52472</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>343921.2643400001</v>
+        <v>344783.51921</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>814427.51218</v>
+        <v>787706.5261100001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-271194.6947000001</v>
+        <v>-258099.09136</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1011718.74877</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>421308.66824</v>
+        <v>443866.47558</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1997083.69599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2084668.36372</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3420576.28</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>190954.59819</v>
@@ -2948,70 +3109,78 @@
         <v>206732.62489</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>221958.44846</v>
+        <v>223368.66981</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>226325.90325</v>
+        <v>226711.16736</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>251396.30134</v>
+        <v>252130.6101200001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>257866.96691</v>
+        <v>263493.16633</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>265956.27884</v>
+        <v>266570.77795</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>313509.26861</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>462148.7964200001</v>
+        <v>466117.39149</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>557991.4484199999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>579528.6537800001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>742117.406</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>557092.90351</v>
+        <v>557092.9035100001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>442401.66804</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1083554.97973</v>
+        <v>-1083878.57769</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>624122.1898800001</v>
+        <v>629144.6370000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>475083.39529</v>
+        <v>446356.35736</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>92524.963</v>
+        <v>92652.90908999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>556560.54527</v>
+        <v>524213.35978</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-537150.97354</v>
+        <v>-524669.8693100001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>698209.48016</v>
+        <v>698209.4801599999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-40840.12817999996</v>
+        <v>-22250.91591</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1439092.24757</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1505139.70994</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2678458.874</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9573</v>
@@ -3038,34 +3210,37 @@
         <v>9647</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>9764</v>
+        <v>9766</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>9665</v>
+        <v>9673</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9522</v>
+        <v>9558</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9383</v>
+        <v>9424</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9531</v>
+        <v>9617</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9898</v>
+        <v>10010</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>11035</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>12670</v>
+        <v>13354</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>15256</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16994</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>